--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value612.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value612.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.492255400471829</v>
+        <v>1.009039878845215</v>
       </c>
       <c r="B1">
-        <v>3.61934663671567</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>5.098584999604412</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.487882073565282</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.9050232295351256</v>
+        <v>1.101571083068848</v>
       </c>
     </row>
   </sheetData>
